--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.5/avg_0.003_scores.xlsx
@@ -121,15 +121,15 @@
     <t>friends</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -145,19 +145,19 @@
     <t>share</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>care</t>
@@ -1503,13 +1503,13 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.7543859649122807</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="L23">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>0.9399999999999999</v>
@@ -1521,7 +1521,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1529,25 +1529,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.7317073170731707</v>
+        <v>0.73</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="N24">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O24">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1555,25 +1555,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.73</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L25">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="M25">
-        <v>79</v>
+        <v>172</v>
       </c>
       <c r="N25">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1711,25 +1711,25 @@
         <v>43</v>
       </c>
       <c r="K31">
-        <v>0.647239263803681</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L31">
-        <v>211</v>
+        <v>33</v>
       </c>
       <c r="M31">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="N31">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1737,25 +1737,25 @@
         <v>44</v>
       </c>
       <c r="K32">
-        <v>0.6470588235294118</v>
+        <v>0.640625</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1763,25 +1763,25 @@
         <v>45</v>
       </c>
       <c r="K33">
-        <v>0.640625</v>
+        <v>0.6385964912280702</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>182</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1789,13 +1789,13 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.6385964912280702</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="L34">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>0.95</v>
@@ -1807,7 +1807,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>103</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1815,25 +1815,25 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>0.6333333333333333</v>
+        <v>0.6205882352941177</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>211</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>211</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>11</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="10:17">
